--- a/backend/auxiliar/LIGHT_2025-02-26_20-10-15_L_1x1_-10.00_3.00s_0000.simbad.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-10-15_L_1x1_-10.00_3.00s_0000.simbad.xlsx
@@ -1214,7 +1214,7 @@
         <v>1.2047</v>
       </c>
       <c r="I15" t="n">
-        <v>13.33</v>
+        <v>12.006</v>
       </c>
       <c r="J15" t="n">
         <v>0.000116077278612879</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TYC  808-195-1</t>
+          <t>2MASS J08280576+1427021</t>
         </is>
       </c>
       <c r="D16" t="n">
